--- a/data/dac-val.xlsx
+++ b/data/dac-val.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,16 +454,11 @@
           <t>Param2</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Param3</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Zelda--param1-00.19--2-07 Riding (Night).dac</t>
+          <t>Zelda--param1-00.99--5-01.dac</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -472,15 +467,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+        <v>0.99</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Zelda--param1-00.42--1-18 Temple of Time.dac</t>
+          <t>Zelda--param1-00.63--6-08.dac</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -489,15 +485,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+        <v>0.63</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Zelda--param1-00.46--6-04 Omen of the Blood Moon.dac</t>
+          <t>Zelda--param1-00.67--5-20.dac</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -506,15 +503,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+        <v>0.67</v>
+      </c>
+      <c r="D4" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Zelda--param1-00.90--6-17 Hatred and Malice Incarnate, Dark Beast Ganon Battle.dac</t>
+          <t>Zelda--param1-00.85--4-20.dac</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -523,15 +521,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+        <v>0.85</v>
+      </c>
+      <c r="D5" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Zelda--param1-00.52--5-22 Ruins.dac</t>
+          <t>Zelda--param1-00.89--1-35.dac</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -540,350 +539,331 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+        <v>0.89</v>
+      </c>
+      <c r="D6" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>8bit--param1-00.71--04 Resurrection of the Dark Genie.dac</t>
+          <t>lofi--param1-00.58.dac</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>8bit</t>
+          <t>lofi</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.71</v>
+        <v>0.58</v>
       </c>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>8bit--param1-00.35.dac</t>
+          <t>lofi--param1-00.49.dac</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>8bit</t>
+          <t>lofi</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.35</v>
+        <v>0.49</v>
       </c>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>8bit--param1-00.82.dac</t>
+          <t>lofi--param1-00.88.dac</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>8bit</t>
+          <t>lofi</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.82</v>
+        <v>0.88</v>
       </c>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>8bit--param1-00.46.dac</t>
+          <t>lofi--param1-00.44.dac</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>8bit</t>
+          <t>lofi</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.46</v>
+        <v>0.44</v>
       </c>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>8bit--param1-00.55.dac</t>
+          <t>lofi--param1-00.81.dac</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>8bit</t>
+          <t>lofi</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.55</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>duduk--param1-00.58.dac</t>
+          <t>Fusion--param1-00.41.dac</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>duduk</t>
+          <t>Fusion</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.58</v>
+        <v>0.41</v>
       </c>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>duduk--param1-00.03.dac</t>
+          <t>Fusion--param1-00.91.dac</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>duduk</t>
+          <t>Fusion</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.03</v>
+        <v>0.91</v>
       </c>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>duduk--param1-00.05.dac</t>
+          <t>Fusion--param1-00.76.dac</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>duduk</t>
+          <t>Fusion</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.05</v>
+        <v>0.76</v>
       </c>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>duduk--param1-00.22.dac</t>
+          <t>Fusion--param1-00.19.dac</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>duduk</t>
+          <t>Fusion</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.22</v>
+        <v>0.19</v>
       </c>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>duduk--param1-00.93.dac</t>
+          <t>Fusion--param1-00.67.dac</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>duduk</t>
+          <t>Fusion</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.93</v>
+        <v>0.67</v>
       </c>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>lofi--param1-00.60--Cymatics - Lofi Melody Loop 13 - 120 BPM C# Min.dac</t>
+          <t>8bit--param1-00.22.dac</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>lofi</t>
+          <t>8bit</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.6</v>
+        <v>0.22</v>
       </c>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>lofi--param1-00.60--Cymatics - Lofi Melody Loop 9 - 90 BPM A Maj.dac</t>
+          <t>8bit--param1-00.71--04.dac</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>lofi</t>
+          <t>8bit</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.6</v>
+        <v>0.71</v>
       </c>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>lofi--param1-00.02.dac</t>
+          <t>8bit--param1-00.67--09.dac</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>lofi</t>
+          <t>8bit</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.02</v>
+        <v>0.67</v>
       </c>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>lofi--param1-00.58.dac</t>
+          <t>8bit--param1-00.44.dac</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>lofi</t>
+          <t>8bit</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.58</v>
+        <v>0.44</v>
       </c>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>lofi--param1-00.62--Cymatics - Lofi Melody Loop 14 - 120 BPM D# Maj.dac</t>
+          <t>8bit--param1-00.54.dac</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>lofi</t>
+          <t>8bit</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.62</v>
+        <v>0.54</v>
       </c>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Fusion--param1-00.53.dac</t>
+          <t>duduk--param1-00.67.dac</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Fusion</t>
+          <t>duduk</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.53</v>
+        <v>0.67</v>
       </c>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Fusion--param1-00.67.dac</t>
+          <t>duduk--param1-00.03.dac</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Fusion</t>
+          <t>duduk</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.67</v>
+        <v>0.03</v>
       </c>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Fusion--param1-00.22.dac</t>
+          <t>duduk--param1-00.54--KSHMR_Duduk_19_One_Shot_F#m.dac</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Fusion</t>
+          <t>duduk</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.22</v>
+        <v>0.54</v>
       </c>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Fusion--param1-00.34--segment_04. Enter Rajasthan.dac</t>
+          <t>duduk--param1-00.05.dac</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Fusion</t>
+          <t>duduk</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.34</v>
+        <v>0.05</v>
       </c>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Fusion--param1-00.20.dac</t>
+          <t>duduk--param1-00.30.dac</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Fusion</t>
+          <t>duduk</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/dac-val.xlsx
+++ b/data/dac-val.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,16 +449,11 @@
           <t>Param1</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Param2</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Zelda--param1-00.99--5-01.dac</t>
+          <t>Zelda--param1-00.68.dac</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,16 +462,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Zelda--param1-00.63--6-08.dac</t>
+          <t>Zelda--param1-00.53.dac</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -485,16 +477,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Zelda--param1-00.67--5-20.dac</t>
+          <t>Zelda--param1-01.00.dac</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -503,16 +492,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="D4" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Zelda--param1-00.85--4-20.dac</t>
+          <t>Zelda--param1-00.60.dac</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -521,16 +507,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="D5" t="n">
-        <v>20</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Zelda--param1-00.89--1-35.dac</t>
+          <t>Zelda--param1-00.32.dac</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -539,16 +522,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="D6" t="n">
-        <v>35</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>lofi--param1-00.58.dac</t>
+          <t>lofi--param1-00.49.dac</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -557,14 +537,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
+        <v>0.49</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>lofi--param1-00.49.dac</t>
+          <t>lofi--param1-00.60.dac</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -573,9 +552,8 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
+        <v>0.6</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -591,7 +569,6 @@
       <c r="C9" t="n">
         <v>0.88</v>
       </c>
-      <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -607,12 +584,11 @@
       <c r="C10" t="n">
         <v>0.44</v>
       </c>
-      <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>lofi--param1-00.81.dac</t>
+          <t>lofi--param1-00.25.dac</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -621,174 +597,163 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
+        <v>0.25</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Fusion--param1-00.41.dac</t>
+          <t>8bit--param1-00.90.dac</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Fusion</t>
+          <t>8bit</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
+        <v>0.9</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Fusion--param1-00.91.dac</t>
+          <t>8bit--param1-00.02.dac</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Fusion</t>
+          <t>8bit</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="D13" t="inlineStr"/>
+        <v>0.02</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Fusion--param1-00.76.dac</t>
+          <t>8bit--param1-00.35.dac</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Fusion</t>
+          <t>8bit</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="D14" t="inlineStr"/>
+        <v>0.35</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Fusion--param1-00.19.dac</t>
+          <t>8bit--param1-00.13.dac</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Fusion</t>
+          <t>8bit</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="D15" t="inlineStr"/>
+        <v>0.13</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Fusion--param1-00.67.dac</t>
+          <t>8bit--param1-00.85.dac</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Fusion</t>
+          <t>8bit</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
+        <v>0.85</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>8bit--param1-00.22.dac</t>
+          <t>Fusion--param1-00.82.dac</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>8bit</t>
+          <t>Fusion</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="D17" t="inlineStr"/>
+        <v>0.82</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>8bit--param1-00.71--04.dac</t>
+          <t>Fusion--param1-00.42.dac</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>8bit</t>
+          <t>Fusion</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="D18" t="inlineStr"/>
+        <v>0.42</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>8bit--param1-00.67--09.dac</t>
+          <t>Fusion--param1-00.39.dac</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>8bit</t>
+          <t>Fusion</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="D19" t="inlineStr"/>
+        <v>0.39</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>8bit--param1-00.44.dac</t>
+          <t>Fusion--param1-00.34.dac</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>8bit</t>
+          <t>Fusion</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="D20" t="inlineStr"/>
+        <v>0.34</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>8bit--param1-00.54.dac</t>
+          <t>Fusion--param1-00.11.dac</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>8bit</t>
+          <t>Fusion</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
+        <v>0.11</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>duduk--param1-00.67.dac</t>
+          <t>duduk--param1-00.66.dac</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -797,9 +762,8 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
+        <v>0.66</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -815,12 +779,11 @@
       <c r="C23" t="n">
         <v>0.03</v>
       </c>
-      <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>duduk--param1-00.54--KSHMR_Duduk_19_One_Shot_F#m.dac</t>
+          <t>duduk--param1-00.38.dac</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -829,14 +792,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="D24" t="inlineStr"/>
+        <v>0.38</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>duduk--param1-00.05.dac</t>
+          <t>duduk--param1-00.11.dac</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -845,9 +807,8 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="D25" t="inlineStr"/>
+        <v>0.11</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -863,7 +824,6 @@
       <c r="C26" t="n">
         <v>0.3</v>
       </c>
-      <c r="D26" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/dac-val.xlsx
+++ b/data/dac-val.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,161 +449,192 @@
           <t>Param1</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Param2</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Zelda--param1-00.68.dac</t>
+          <t>zelda--param1-00.98--1-08 Rune Extraction.dac</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Zelda</t>
+          <t>zelda</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.68</v>
+        <v>0.98</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>08 Rune Extraction</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Zelda--param1-00.53.dac</t>
+          <t>zelda--param1-00.37--5-13 Windblight Ganon Appears.dac</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Zelda</t>
+          <t>zelda</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.53</v>
+        <v>0.37</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13 Windblight Ganon Appears</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Zelda--param1-01.00.dac</t>
+          <t>zelda--param1-00.00.dac</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Zelda</t>
+          <t>zelda</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Zelda--param1-00.60.dac</t>
+          <t>zelda--param1-00.10--1-29 Impa's Theme.dac</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Zelda</t>
+          <t>zelda</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.6</v>
+        <v>0.1</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>29 Impa's Theme</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Zelda--param1-00.32.dac</t>
+          <t>zelda--param1-00.71--3-16 Riju's Thunder Barrier.dac</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Zelda</t>
+          <t>zelda</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.32</v>
+        <v>0.71</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16 Riju's Thunder Barrier</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>lofi--param1-00.49.dac</t>
+          <t>fusion--param1-00.28.dac</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>lofi</t>
+          <t>fusion</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.49</v>
-      </c>
+        <v>0.28</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>lofi--param1-00.60.dac</t>
+          <t>fusion--param1-00.03.dac</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>lofi</t>
+          <t>fusion</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.6</v>
-      </c>
+        <v>0.03</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>lofi--param1-00.88.dac</t>
+          <t>fusion--param1-00.94--02. Lament.dac</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>lofi</t>
+          <t>fusion</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.88</v>
-      </c>
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>lofi--param1-00.44.dac</t>
+          <t>fusion--param1-00.08--05. Rising.dac</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>lofi</t>
+          <t>fusion</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.44</v>
-      </c>
+        <v>0.08</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>lofi--param1-00.25.dac</t>
+          <t>fusion--param1-00.59.dac</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>lofi</t>
+          <t>fusion</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.25</v>
-      </c>
+        <v>0.59</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>8bit--param1-00.90.dac</t>
+          <t>8bit--param1-00.37.dac</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -612,13 +643,14 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.9</v>
-      </c>
+        <v>0.37</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>8bit--param1-00.02.dac</t>
+          <t>8bit--param1-00.28--30 The King's Curse.dac</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -627,13 +659,14 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.02</v>
-      </c>
+        <v>0.28</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>8bit--param1-00.35.dac</t>
+          <t>8bit--param1-00.82.dac</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -642,13 +675,14 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.35</v>
-      </c>
+        <v>0.82</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>8bit--param1-00.13.dac</t>
+          <t>8bit--param1-00.52.dac</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -657,13 +691,14 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.13</v>
-      </c>
+        <v>0.52</v>
+      </c>
+      <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>8bit--param1-00.85.dac</t>
+          <t>8bit--param1-00.71--24 The Ice Queen.dac</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -672,158 +707,89 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.85</v>
-      </c>
+        <v>0.71</v>
+      </c>
+      <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Fusion--param1-00.82.dac</t>
+          <t>rock--param1-00.30.dac</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Fusion</t>
+          <t>rock</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.82</v>
-      </c>
+        <v>0.3</v>
+      </c>
+      <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Fusion--param1-00.42.dac</t>
+          <t>rock--param1-00.53.dac</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Fusion</t>
+          <t>rock</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.42</v>
-      </c>
+        <v>0.53</v>
+      </c>
+      <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Fusion--param1-00.39.dac</t>
+          <t>rock--param1-00.39.dac</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Fusion</t>
+          <t>rock</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>0.39</v>
       </c>
+      <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Fusion--param1-00.34.dac</t>
+          <t>rock--param1-00.57.dac</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Fusion</t>
+          <t>rock</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.34</v>
-      </c>
+        <v>0.57</v>
+      </c>
+      <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Fusion--param1-00.11.dac</t>
+          <t>rock--param1-00.10.dac</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Fusion</t>
+          <t>rock</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>duduk--param1-00.66.dac</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>duduk</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>duduk--param1-00.03.dac</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>duduk</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>duduk--param1-00.38.dac</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>duduk</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>duduk--param1-00.11.dac</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>duduk</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>duduk--param1-00.30.dac</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>duduk</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>0.3</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="D21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/dac-val.xlsx
+++ b/data/dac-val.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,7 +458,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>zelda--param1-00.98--1-08 Rune Extraction.dac</t>
+          <t>zelda--param1-00.62--4-26 Boom Bam Golf.dac</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,18 +467,18 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.98</v>
+        <v>0.62</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>08 Rune Extraction</t>
+          <t>26 Boom Bam Golf</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>zelda--param1-00.37--5-13 Windblight Ganon Appears.dac</t>
+          <t>zelda--param1-00.67--2-28 Hinox Battle.dac</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -487,18 +487,18 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.37</v>
+        <v>0.67</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>13 Windblight Ganon Appears</t>
+          <t>28 Hinox Battle</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>zelda--param1-00.00.dac</t>
+          <t>zelda--param1-00.10--4-10 Link's Memories- The Silent Princess.dac</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -507,14 +507,18 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
+        <v>0.1</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10 Link's Memories- The Silent Princess</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>zelda--param1-00.10--1-29 Impa's Theme.dac</t>
+          <t>zelda--param1-00.72--2-37 Race.dac</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -523,18 +527,18 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.1</v>
+        <v>0.72</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>29 Impa's Theme</t>
+          <t>37 Race</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>zelda--param1-00.71--3-16 Riju's Thunder Barrier.dac</t>
+          <t>zelda--param1-00.89--2-05 Kass' Theme.dac</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -543,253 +547,577 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.71</v>
+        <v>0.89</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>16 Riju's Thunder Barrier</t>
+          <t>05 Kass' Theme</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>fusion--param1-00.28.dac</t>
+          <t>zelda--param1-00.71--2-12 Prince of Zoras, Sidon.dac</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>fusion</t>
+          <t>zelda</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
+        <v>0.71</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12 Prince of Zoras, Sidon</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>fusion--param1-00.03.dac</t>
+          <t>zelda--param1-00.50--1-32 Link's Memories- Resolve and Grief.dac</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>fusion</t>
+          <t>zelda</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
+        <v>0.5</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>32 Link's Memories- Resolve and Grief</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>fusion--param1-00.94--02. Lament.dac</t>
+          <t>zelda--param1-00.20--2-39 Hunting.dac</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>fusion</t>
+          <t>zelda</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
+        <v>0.2</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>39 Hunting</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>fusion--param1-00.08--05. Rising.dac</t>
+          <t>zelda--param1-00.22--3-13 Leader of the Yiga Clan, Master Kohga Battle.dac</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>fusion</t>
+          <t>zelda</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
+        <v>0.22</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13 Leader of the Yiga Clan, Master Kohga Battle</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>fusion--param1-00.59.dac</t>
+          <t>zelda--param1-00.78--1-14 Battle (Shrine).dac</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>fusion</t>
+          <t>zelda</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
+        <v>0.78</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>14 Battle (Shrine)</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>8bit--param1-00.37.dac</t>
+          <t>fusion--param1-00.50--09. The Chieftain.dac</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>8bit</t>
+          <t>fusion</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.37</v>
+        <v>0.5</v>
       </c>
       <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>8bit--param1-00.28--30 The King's Curse.dac</t>
+          <t>fusion--param1-00.13.dac</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>8bit</t>
+          <t>fusion</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.28</v>
+        <v>0.13</v>
       </c>
       <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>8bit--param1-00.82.dac</t>
+          <t>fusion--param1-00.08--05. Rising.dac</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>8bit</t>
+          <t>fusion</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.82</v>
+        <v>0.08</v>
       </c>
       <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>8bit--param1-00.52.dac</t>
+          <t>fusion--param1-00.50--10. Rangda.dac</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>8bit</t>
+          <t>fusion</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>8bit--param1-00.71--24 The Ice Queen.dac</t>
+          <t>fusion--param1-00.46--03. All Gods With Me.dac</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>8bit</t>
+          <t>fusion</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.71</v>
+        <v>0.46</v>
       </c>
       <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>rock--param1-00.30.dac</t>
+          <t>fusion--param1-00.15.dac</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>rock</t>
+          <t>fusion</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>rock--param1-00.53.dac</t>
+          <t>fusion--param1-00.31.dac</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>rock</t>
+          <t>fusion</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.53</v>
+        <v>0.31</v>
       </c>
       <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>rock--param1-00.39.dac</t>
+          <t>8bit--param1-00.33.dac</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>rock</t>
+          <t>8bit</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.39</v>
+        <v>0.33</v>
       </c>
       <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>rock--param1-00.57.dac</t>
+          <t>8bit--param1-00.18.dac</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>rock</t>
+          <t>8bit</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.57</v>
+        <v>0.18</v>
       </c>
       <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>rock--param1-00.10.dac</t>
+          <t>8bit--param1-00.20.dac</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>8bit</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>8bit--param1-00.28--09 Departure.dac</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>8bit</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="D22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>8bit--param1-00.41.dac</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>8bit</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="D23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>8bit--param1-00.90.dac</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>8bit</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>8bit--param1-00.53--25 Broken Promise.dac</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>8bit</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="D25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>8bit--param1-00.14.dac</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>8bit</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="D26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>8bit--param1-00.09.dac</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>8bit</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="D27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>8bit--param1-00.53--06 The Destruction of Norune Village.dac</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>8bit</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="D28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>rock--param1-00.02.dac</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
           <t>rock</t>
         </is>
       </c>
-      <c r="C21" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="C29" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>rock--param1-00.66.dac</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>rock</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="D30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>rock--param1-00.57.dac</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>rock</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="D31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>rock--param1-00.40.dac</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>rock</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>rock--param1-00.97.dac</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>rock</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="D33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>rock--param1-00.55.dac</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>rock</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="D34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>rock--param1-00.53.dac</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>rock</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="D35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>duduk--param1-00.63--KSHMR_Duduk_08_One_Shot_Dm.dac</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>duduk</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="D36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>duduk--param1-00.57.dac</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>duduk</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="D37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>duduk--param1-00.63--KSHMR_Duduk_02_One_Shot_Bm.dac</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>duduk</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="D38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>duduk--param1-00.52.dac</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>duduk</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="D39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>duduk--param1-00.53.dac</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>duduk</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="D40" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
